--- a/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
+++ b/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
@@ -2,15 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DT_smote" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_z" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_min_max" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_log" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_min_max" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_min_max1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_min_max2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,10 +18,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -40,12 +46,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -57,18 +78,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -361,9 +385,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -389,485 +413,325 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>[gini, 4]</t>
+          <t>[0.1, 1]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7556587397651758</v>
+        <v>0.8315598172614539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7720363333398067</v>
+        <v>0.8514012737823746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7556576783564181</v>
+        <v>0.8315583278441189</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>[gini, 5]</t>
+          <t>[0.1, 0.1]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7596323792326122</v>
+        <v>0.8294632879014587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7798684895824496</v>
+        <v>0.8487701318510716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.759631222063375</v>
+        <v>0.8294618177961078</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>[gini, 6]</t>
+          <t>[0.1, 0.01]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7635938154100855</v>
+        <v>0.8292317039569234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7859426937673895</v>
+        <v>0.8478447791491229</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7635812106290569</v>
+        <v>0.8292302531634663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>[gini, 7]</t>
+          <t>[0.1, 0.001]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7663485654950193</v>
+        <v>0.7320485802659283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7889607529140082</v>
+        <v>0.7402340670148191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7663352408361629</v>
+        <v>0.7320474428579451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>[gini, 8]</t>
+          <t>[0.1, 0.0001]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7768310578632277</v>
+        <v>0.5466877932841733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7786518875203245</v>
+        <v>0.3481044818832552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7768182415935471</v>
+        <v>0.5466867472385314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>[gini, 9]</t>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7881181539649159</v>
+        <v>0.8334613123769141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7883835847265956</v>
+        <v>0.8526041988738399</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7881428572065404</v>
+        <v>0.8334598452442604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>[gini, 10]</t>
+          <t>[1, 0.1]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7999902725783984</v>
+        <v>0.8322911514797907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7999727977508397</v>
+        <v>0.8507895745389289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7999654741542059</v>
+        <v>0.8322897066308226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>[gini, 11]</t>
+          <t>[1, 0.01]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8119355953321301</v>
+        <v>0.8295364244431985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8134161957535533</v>
+        <v>0.8488225965725948</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8121545732592087</v>
+        <v>0.8295349528521779</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>[gini, 12]</t>
+          <t>[1, 0.001]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8197487495026258</v>
+        <v>0.8292804599181356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8228247066350858</v>
+        <v>0.8478631889365179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8197360611649097</v>
+        <v>0.829279009867513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>[gini, 13]</t>
+          <t>[1, 0.0001]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.826147964445104</v>
+        <v>0.7320242026567397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8307866875735299</v>
+        <v>0.7401999267493001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8262571932560258</v>
+        <v>0.7320230659915008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>[gini, 14]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8286100428218259</v>
+        <v>0.8340463883684672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8335415887860108</v>
+        <v>0.8530028370076723</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8284146507272717</v>
+        <v>0.8340449256928221</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>[gini, 15]</t>
+          <t>[10, 0.1]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.827671461405257</v>
+        <v>0.8334491120583808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8313474817368491</v>
+        <v>0.8516200313289974</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8280004341920439</v>
+        <v>0.8334476783519342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>[gini, 16]</t>
+          <t>[10, 0.01]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8260990911156327</v>
+        <v>0.8322789608181095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8287943953985218</v>
+        <v>0.850780296956111</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8259283351320652</v>
+        <v>0.8322775174548109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>[gini, 17]</t>
+          <t>[10, 0.001]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8237709280238771</v>
+        <v>0.8295242360100217</v>
       </c>
       <c r="C15" t="n">
-        <v>0.825230345813136</v>
+        <v>0.8488141334039471</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8235394096147235</v>
+        <v>0.8295227636761664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>[gini, None]</t>
+          <t>[10, 0.0001]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7949925595810144</v>
+        <v>0.8292804599181356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7961467314806614</v>
+        <v>0.8478631889365179</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7956754427844995</v>
+        <v>0.829279009867513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>[entropy, 4]</t>
+          <t>[100, 1]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7556831129175366</v>
+        <v>0.8343633017449278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7720341512985893</v>
+        <v>0.8531792879060653</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7556820492794595</v>
+        <v>0.8343618442691263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>[entropy, 5]</t>
+          <t>[100, 0.1]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7595958072472968</v>
+        <v>0.8337782272390445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7797929403859006</v>
+        <v>0.8525464371542915</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7595946411607816</v>
+        <v>0.8337767623349857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>[entropy, 6]</t>
+          <t>[100, 0.01]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7635572456532743</v>
+        <v>0.8332906557415676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7859499690334333</v>
+        <v>0.8515063987527138</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7635568352481915</v>
+        <v>0.8332892190637822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>[entropy, 7]</t>
+          <t>[100, 0.001]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.766507023298679</v>
+        <v>0.8321936373288624</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7894392582514175</v>
+        <v>0.8507193099074624</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7665058907913395</v>
+        <v>0.8321921932227291</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>[entropy, 8]</t>
+          <t>[100, 0.0001]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7749540220548394</v>
+        <v>0.8295120475768447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7771306296560252</v>
+        <v>0.8488055958573062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7749413149777978</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 9]</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.7862288814389989</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7865089159159909</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.7862414883425676</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 10]</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.7995758777326619</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7997469749123793</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.7995633784420531</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 11]</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.8116917724398411</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8132254151423391</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8116424317072527</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 12]</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.8199560226946427</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8234376096088886</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8199675113797099</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 13]</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.8273791306582142</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8328948667460065</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8274394170592895</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 14]</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.8314379725334607</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.836890776915721</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.8313766250439653</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 15]</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.8297071466686813</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8339021389622846</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.8295241674233822</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 16]</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.8290854407463528</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8325778976430738</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.8295970795904328</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, 17]</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.8261722863418643</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.8281892774552942</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.8260869578784682</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>[entropy, None]</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.7994904190468487</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.7998402686584679</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.7994666258330002</v>
+        <v>0.8295105745001546</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -877,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,360 +750,344 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Precision(Avg)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Recall(Avg)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 2]</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 1]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7563169444566682</v>
+        <v>0.8315598172614539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.771659202249808</v>
+        <v>0.8514012737823746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7563183682043301</v>
+        <v>0.8315583278441189</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 3]</t>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 0.1]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8060360139972657</v>
+        <v>0.8294632879014587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8063755355685996</v>
+        <v>0.8487701318510716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8060357724461337</v>
+        <v>0.8294618177961078</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 4]</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 0.01]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7896173669900087</v>
+        <v>0.8292317039569234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7923299906093251</v>
+        <v>0.8478447791491229</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7896179090712725</v>
+        <v>0.8292302531634663</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 5]</t>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 0.001]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8146780038507961</v>
+        <v>0.7320485802659283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8159773903537116</v>
+        <v>0.7402340670148191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8146775728966207</v>
+        <v>0.7320474428579451</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 6]</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 0.0001]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8030009084275171</v>
+        <v>0.5466877932841733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8032323729640656</v>
+        <v>0.3481044818832552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8030010301005053</v>
+        <v>0.5466867472385314</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 7]</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8199436632612247</v>
+        <v>0.8334613123769141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8222631680886586</v>
+        <v>0.8526041988738399</v>
       </c>
       <c r="D7" t="n">
-        <v>0.819943075582399</v>
+        <v>0.8334598452442604</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 8]</t>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>[1, 0.1]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.810716546160541</v>
+        <v>0.8322911514797907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8108040610855414</v>
+        <v>0.8507895745389289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8107163922653624</v>
+        <v>0.8322897066308226</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 2]</t>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>[1, 0.01]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7563169444566682</v>
+        <v>0.8295364244431985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.771659202249808</v>
+        <v>0.8488225965725948</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7563183682043301</v>
+        <v>0.8295349528521779</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 3]</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>[1, 0.001]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8060360139972657</v>
+        <v>0.8292804599181356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8063755355685996</v>
+        <v>0.8478631889365179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8060357724461337</v>
+        <v>0.829279009867513</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 4]</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>[1, 0.0001]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7896173669900087</v>
+        <v>0.7320242026567397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7923299906093251</v>
+        <v>0.7401999267493001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7896179090712725</v>
+        <v>0.7320230659915008</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 5]</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>[10, 1]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8146780038507961</v>
+        <v>0.8340463883684672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8159773903537116</v>
+        <v>0.8530028370076723</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8146775728966207</v>
+        <v>0.8340449256928221</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 6]</t>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>[10, 0.1]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8030009084275171</v>
+        <v>0.8334491120583808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8032323729640656</v>
+        <v>0.8516200313289974</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8030010301005053</v>
+        <v>0.8334476783519342</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 7]</t>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>[10, 0.01]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8199436632612247</v>
+        <v>0.8322789608181095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8222631680886586</v>
+        <v>0.850780296956111</v>
       </c>
       <c r="D14" t="n">
-        <v>0.819943075582399</v>
+        <v>0.8322775174548109</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 8]</t>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>[10, 0.001]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.810716546160541</v>
+        <v>0.8295242360100217</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8108040610855414</v>
+        <v>0.8488141334039471</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8107163922653624</v>
+        <v>0.8295227636761664</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 2]</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>[10, 0.0001]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7591570098392033</v>
+        <v>0.8292804599181356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7758511165248172</v>
+        <v>0.8478631889365179</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7591584699843212</v>
+        <v>0.829279009867513</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 3]</t>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>[100, 1]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8091685832051769</v>
+        <v>0.8343633017449278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8093832802041488</v>
+        <v>0.8531792879060653</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8091683891955619</v>
+        <v>0.8343618442691263</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 4]</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>[100, 0.1]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7910678536790186</v>
+        <v>0.8337782272390445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7940914697283971</v>
+        <v>0.8525464371542915</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7910684314157181</v>
+        <v>0.8337767623349857</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 5]</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>[100, 0.01]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8170914465872521</v>
+        <v>0.8332906557415676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8182059833168867</v>
+        <v>0.8515063987527138</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8170910327180956</v>
+        <v>0.8332892190637822</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 6]</t>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>[100, 0.001]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8047683292923618</v>
+        <v>0.8321936373288624</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8050982619103241</v>
+        <v>0.8507193099074624</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8047684873626249</v>
+        <v>0.8321921932227291</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 7]</t>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>[100, 0.0001]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8208822209001083</v>
+        <v>0.8295120475768447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8228442080785389</v>
+        <v>0.8488055958573062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8208817253277262</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 8]</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.811923279785543</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8119517760790904</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8119232098252633</v>
+        <v>0.8295105745001546</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1249,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,731 +1106,343 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Precision(Avg)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Recall(Avg)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 2]</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 1]</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7485403281588552</v>
+        <v>0.8315598172614539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7631803499432921</v>
+        <v>0.8514012737823746</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7485417184762356</v>
+        <v>0.8315583278441189</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 3]</t>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 0.1]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8033300243510156</v>
+        <v>0.8294632879014587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8038988481962838</v>
+        <v>0.8487701318510716</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8033296921791097</v>
+        <v>0.8294618177961078</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 4]</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 0.01]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7841810405445466</v>
+        <v>0.8292317039569234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7862733299107831</v>
+        <v>0.8478447791491229</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7841814994305775</v>
+        <v>0.8292302531634663</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 5]</t>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 0.001]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8146536366412945</v>
+        <v>0.7320485802659283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8167824050753854</v>
+        <v>0.7402340670148191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8146530801550114</v>
+        <v>0.7320474428579451</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 6]</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>[0.1, 0.0001]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.801270068461734</v>
+        <v>0.5466877932841733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.801308519708652</v>
+        <v>0.3481044818832552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.801270027462414</v>
+        <v>0.5466867472385314</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 7]</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8186394437130163</v>
+        <v>0.8334613123769141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.822204884326565</v>
+        <v>0.8526041988738399</v>
       </c>
       <c r="D7" t="n">
-        <v>0.818638725301877</v>
+        <v>0.8334598452442604</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 8]</t>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>[1, 0.1]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8099608640464071</v>
+        <v>0.8322911514797907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8105283452532138</v>
+        <v>0.8507895745389289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8099605370784186</v>
+        <v>0.8322897066308226</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 2]</t>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>[1, 0.01]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7485403281588552</v>
+        <v>0.8295364244431985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7631803499432921</v>
+        <v>0.8488225965725948</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7485417184762356</v>
+        <v>0.8295349528521779</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 3]</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>[1, 0.001]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8033300243510156</v>
+        <v>0.8292804599181356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8038988481962838</v>
+        <v>0.8478631889365179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8033296921791097</v>
+        <v>0.829279009867513</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 4]</t>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>[1, 0.0001]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7841810405445466</v>
+        <v>0.7320242026567397</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7862733299107831</v>
+        <v>0.7401999267493001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7841814994305775</v>
+        <v>0.7320230659915008</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 5]</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>[10, 1]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8146536366412945</v>
+        <v>0.8340463883684672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8167824050753854</v>
+        <v>0.8530028370076723</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8146530801550114</v>
+        <v>0.8340449256928221</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 6]</t>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>[10, 0.1]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.801270068461734</v>
+        <v>0.8334491120583808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.801308519708652</v>
+        <v>0.8516200313289974</v>
       </c>
       <c r="D13" t="n">
-        <v>0.801270027462414</v>
+        <v>0.8334476783519342</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 7]</t>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>[10, 0.01]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8186394437130163</v>
+        <v>0.8322789608181095</v>
       </c>
       <c r="C14" t="n">
-        <v>0.822204884326565</v>
+        <v>0.850780296956111</v>
       </c>
       <c r="D14" t="n">
-        <v>0.818638725301877</v>
+        <v>0.8322775174548109</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 8]</t>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>[10, 0.001]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8099608640464071</v>
+        <v>0.8295242360100217</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8105283452532138</v>
+        <v>0.8488141334039471</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8099605370784186</v>
+        <v>0.8295227636761664</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 2]</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>[10, 0.0001]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7511731805205304</v>
+        <v>0.8292804599181356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7658929446198475</v>
+        <v>0.8478631889365179</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7511745864370794</v>
+        <v>0.829279009867513</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 3]</t>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>[100, 1]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8051461870632112</v>
+        <v>0.8343633017449278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8056553680670235</v>
+        <v>0.8531792879060653</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8051458972318016</v>
+        <v>0.8343618442691263</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 4]</t>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>[100, 0.1]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7869113714010806</v>
+        <v>0.8337782272390445</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7891454938669404</v>
+        <v>0.8525464371542915</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7869118273186695</v>
+        <v>0.8337767623349857</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 5]</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>[100, 0.01]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8150680545118314</v>
+        <v>0.8332906557415676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8170865632597474</v>
+        <v>0.8515063987527138</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8150674898557236</v>
+        <v>0.8332892190637822</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 6]</t>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>[100, 0.001]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8034519094256197</v>
+        <v>0.8321936373288624</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8034953444383811</v>
+        <v>0.8507193099074624</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8034518676848231</v>
+        <v>0.8321921932227291</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 7]</t>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>[100, 0.0001]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8207481652203624</v>
+        <v>0.8295120475768447</v>
       </c>
       <c r="C21" t="n">
-        <v>0.824198245649764</v>
+        <v>0.8488055958573062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.820747472064429</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 8]</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8109847466602073</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8114817822199545</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8109844338057177</v>
+        <v>0.8295105745001546</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Precision(Avg)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Recall(Avg)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 2]</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6863275827422127</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6971845891111867</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6863289841521401</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 3]</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7560975496881446</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.761158988226682</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7560966470183983</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 4]</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7315000829449323</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7315643101504579</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7315001718814947</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 5]</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7646664520270313</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7749335620519884</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7646652500184954</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 6]</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.7490279278840537</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7506265793789116</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7490274255717473</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 7]</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.76462987112797</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7777646996728603</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.764628475994974</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[minkowski, 8]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7550249274554977</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7593403640585451</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.755024097577585</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 2]</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6863275827422127</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6971845891111867</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6863289841521401</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 3]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.7560975496881446</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.761158988226682</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7560966470183983</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 4]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7315000829449323</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7315643101504579</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7315001718814947</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 5]</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.7646664520270313</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7749335620519884</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.7646652500184954</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 6]</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7490279278840537</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7506265793789116</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7490274255717473</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 7]</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.76462987112797</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7777646996728603</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.764628475994974</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>[euclidean, 8]</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.7550249274554977</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7593403640585451</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.755024097577585</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 2]</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.6863032036473544</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.6971588348082136</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6863046043145375</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 3]</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7561706817728756</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7612426466968841</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.7561697776177314</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 4]</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.7315610251108169</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7316249166364296</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.7315611118192372</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 5]</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.7645567509285954</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7747816587559353</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.7645555533767063</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 6]</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7490279226842104</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7506159136027185</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.7490274166582731</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 7]</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.7648127057968064</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7780069025785472</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7648113166063075</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>[manhattan, 8]</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.7553906005073443</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7597512813486667</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.7553897728579362</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
+++ b/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DT_smote" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_log" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_min_max" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_Z" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_min_max" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,18 +59,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -868,7 +869,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1240,7 +1241,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1612,7 +1613,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1984,7 +1985,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2340,6 +2341,362 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 1]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8315598172614539</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8514012737823746</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8315583278441189</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8294632879014587</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8487701318510716</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8294618177961078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8292317039569234</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8478447791491229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8292302531634663</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7320485802659283</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7402340670148191</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7320474428579451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5466877932841733</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3481044818832552</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5466867472385314</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8334613123769141</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8526041988738399</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8334598452442604</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8322911514797907</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8507895745389289</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8322897066308226</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8295364244431985</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8488225965725948</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8295349528521779</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8292804599181356</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8478631889365179</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.829279009867513</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7320242026567397</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7401999267493001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7320230659915008</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[10, 1]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8340463883684672</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8530028370076723</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8340449256928221</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.1]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8334491120583808</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8516200313289974</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8334476783519342</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.01]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8322789608181095</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.850780296956111</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8322775174548109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.001]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8295242360100217</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8488141334039471</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8295227636761664</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8292804599181356</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8478631889365179</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.829279009867513</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[100, 1]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8343633017449278</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8531792879060653</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8343618442691263</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.1]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8337782272390445</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8525464371542915</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8337767623349857</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.01]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8332906557415676</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8515063987527138</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8332892190637822</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.001]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8321936373288624</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8507193099074624</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8321921932227291</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8295120475768447</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8488055958573062</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8295105745001546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
+++ b/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
@@ -7,7 +7,12 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_Z" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DT_smote" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_z" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_log" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_min_max" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_Z" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_Log" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,6 +363,1638 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 4]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7556587397651758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7720363333398067</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7556576783564181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 5]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7596323792326122</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7798684895824496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.759631222063375</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 6]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7635816277196528</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7859734322758103</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7635812106290569</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 7]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7663485654950193</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7889084780937321</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7663474285265955</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 8]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7768554354725974</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7786862467309532</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7768548135804928</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 9]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7881425360312945</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7883233547128042</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7881794202778384</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 10]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7999902703498942</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8001459720349254</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7999898718241906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 11]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.812106238597718</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8134668053965241</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8120205131222733</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 12]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8196024816179031</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8226518573600754</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8195654201253807</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 13]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8261357455556103</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8308421123957146</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8262816132151297</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 14]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8289757114193801</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8335839576115116</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8286827442541994</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 15]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8279761781796218</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8314918578108021</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8276225622947451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 16]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8262087513589697</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8292926829783849</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8262574473519858</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 17]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8236246445396239</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8255885661720992</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8240757081141756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[gini, None]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7962236121404016</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7962879660536178</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7953952730127355</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 4]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7556831129175366</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7720341512985893</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7556820492794595</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 5]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7595958072472968</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7797929403859006</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7595946411607816</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 6]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7635572456532743</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7859499690334333</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7635568352481915</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 7]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.766507023298679</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7894392582514175</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7665058907913395</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 8]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7749540220548394</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7771306296560252</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7749291228295412</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 9]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7861801239917552</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7864958072605651</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7862658458921375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 10]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7994905505286068</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.799561374546346</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7996243302676879</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 11]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8117405432581113</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8132649125220761</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8117399466041858</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 12]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8199072607903906</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.823297607946421</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8199918689292798</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 13]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.827208471793096</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8329580395526929</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8273296921828046</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 14]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8313404665529905</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8372863026374359</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.831352218458333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 15]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8296705902828964</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8341571396898458</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8298410384589838</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 16]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8295608654129322</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8330800203077281</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8295605076034873</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 17]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8263429184649304</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8282941876722955</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8261112530185041</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, None]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.798917677822671</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7997310402042246</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7989669572722041</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 2]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7563169444566682</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.771659202249808</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7563183682043301</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 3]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8060360139972657</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8063755355685996</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8060357724461337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 4]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7896173669900087</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7923299906093251</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7896179090712725</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 5]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8146780038507961</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8159773903537116</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8146775728966207</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 6]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8030009084275171</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8032323729640656</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8030010301005053</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 7]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8199436632612247</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8222631680886586</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.819943075582399</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 8]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.810716546160541</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8108040610855414</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8107163922653624</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 2]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7563169444566682</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.771659202249808</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7563183682043301</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 3]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8060360139972657</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8063755355685996</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8060357724461337</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 4]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7896173669900087</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7923299906093251</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7896179090712725</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 5]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8146780038507961</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8159773903537116</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8146775728966207</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 6]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8030009084275171</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8032323729640656</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8030010301005053</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 7]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8199436632612247</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8222631680886586</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.819943075582399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 8]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.810716546160541</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8108040610855414</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8107163922653624</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 2]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7591570098392033</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7758511165248172</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7591584699843212</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 3]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8091685832051769</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8093832802041488</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8091683891955619</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 4]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7910678536790186</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7940914697283971</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7910684314157181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 5]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8170914465872521</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8182059833168867</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8170910327180956</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 6]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8047683292923618</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8050982619103241</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8047684873626249</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 7]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8208822209001083</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8228442080785389</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8208817253277262</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 8]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.811923279785543</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8119517760790904</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8119232098252633</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 2]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6863275827422127</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6971845891111867</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6863289841521401</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 3]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7560975496881446</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.761158988226682</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7560966470183983</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 4]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7315000829449323</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7315643101504579</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7315001718814947</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 5]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7646664520270313</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7749335620519884</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7646652500184954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 6]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7490279278840537</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7506265793789116</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7490274255717473</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 7]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.76462987112797</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7777646996728603</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.764628475994974</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 8]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7550249274554977</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7593403640585451</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.755024097577585</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 2]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6863275827422127</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6971845891111867</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6863289841521401</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 3]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7560975496881446</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.761158988226682</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7560966470183983</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 4]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7315000829449323</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7315643101504579</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7315001718814947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 5]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7646664520270313</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7749335620519884</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7646652500184954</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 6]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7490279278840537</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7506265793789116</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7490274255717473</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 7]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.76462987112797</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7777646996728603</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.764628475994974</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 8]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7550249274554977</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7593403640585451</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.755024097577585</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 2]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6863032036473544</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6971588348082136</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6863046043145375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 3]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7561706817728756</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7612426466968841</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7561697776177314</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 4]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7315610251108169</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7316249166364296</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7315611118192372</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 5]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7645567509285954</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7747816587559353</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7645555533767063</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 6]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7490279226842104</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7506159136027185</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7490274166582731</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 7]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7648127057968064</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7780069025785472</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7648113166063075</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 8]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7553906005073443</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7597512813486667</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7553897728579362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 2]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7485403281588552</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7631803499432921</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7485417184762356</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 3]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8033300243510156</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8038988481962838</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8033296921791097</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 4]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7841810405445466</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7862733299107831</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7841814994305775</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 5]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8146536366412945</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8167824050753854</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8146530801550114</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 6]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.801270068461734</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.801308519708652</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.801270027462414</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 7]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8186394437130163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.822204884326565</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.818638725301877</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 8]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8099608640464071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8105283452532138</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8099605370784186</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 2]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7485403281588552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7631803499432921</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7485417184762356</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 3]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8033300243510156</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8038988481962838</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8033296921791097</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 4]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7841810405445466</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7862733299107831</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7841814994305775</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 5]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8146536366412945</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8167824050753854</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8146530801550114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 6]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.801270068461734</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.801308519708652</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.801270027462414</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 7]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8186394437130163</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.822204884326565</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.818638725301877</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 8]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8099608640464071</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8105283452532138</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8099605370784186</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 2]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7511731805205304</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7658929446198475</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7511745864370794</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 3]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8051461870632112</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8056553680670235</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8051458972318016</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 4]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7869113714010806</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7891454938669404</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7869118273186695</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 5]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8150680545118314</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8170865632597474</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8150674898557236</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 6]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8034519094256197</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8034953444383811</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8034518676848231</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 7]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8207481652203624</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.824198245649764</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.820747472064429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 8]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8109847466602073</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8114817822199545</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8109844338057177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -706,4 +2343,360 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 1]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7706512720793155</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7821929744690542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7706499497428612</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.632049785143952</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6411082010198921</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6320482213013613</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5271253580352246</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3290360395218309</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5271237941926339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7708341045196475</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7824844547947054</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7708327858974575</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7689569632426628</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7820286659841242</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7689557018157639</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.632049785143952</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6411082010198921</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6320482213013613</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[10, 1]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.7706634582839881</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7822603652871685</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7706621404044519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.1]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.7709559881085818</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7820342158982111</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7709547266816829</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.01]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.001]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[100, 1]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7706634582839881</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7822603652871685</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7706621404044519</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.1]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7706268922416226</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.782005168391674</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7706255788187331</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.01]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7668117128346905</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7838934276508135</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7668096328510252</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.001]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7672627123471234</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8003141757990381</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7672606323634581</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
+++ b/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DT_smote" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_min_max" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_Z" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_min_max" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_Min-Max" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -59,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -869,7 +870,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1241,7 +1242,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1613,7 +1614,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1985,7 +1986,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2341,7 +2342,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2697,6 +2698,362 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 1]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8320352018114233</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8517662752081142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8320337057085752</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8303896704781915</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8494352026267981</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8303881951729972</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8293048427271674</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8478999656106918</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8293033882195365</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7308296790071235</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7391987155363189</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7308285222856168</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5463465171552196</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3478069137825271</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5463454517957829</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8334491291435807</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8525977075273093</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8334476560682486</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8327787200059283</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8511421206006361</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8327772736712907</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8304749932246039</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.849495634420897</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8304735194050792</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8292926542939906</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8478748314564098</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8292911990435247</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7308053006551</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7391689943037354</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7308041439335934</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[10, 1]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.834192659966277</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8531092210260554</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8341911958049625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.1]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8337050869831307</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8518070139693295</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.83370365104818</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.01]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8328152882767984</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.851168674933206</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8328138411993258</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.001]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8304140488302151</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8494523459600487</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8304125735250206</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8292926542939906</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8478749317874499</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8292911990435249</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[100, 1]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8346314665885244</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8533228726130367</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8346300061413837</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.1]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8338879335373237</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.852619995009902</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8338864664046699</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.01]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8334978739622709</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.851657945706459</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8334964350559811</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.001]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8327543446252441</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8511255919271445</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8327528953192672</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.0001]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.830401860397038</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8494436579227314</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.830400384349009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
+++ b/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,13 +390,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8431309726130443</v>
+        <v>0.8480762049053731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.848688732279584</v>
+        <v>0.8534935509033312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8431731527659257</v>
+        <v>0.8474652758362695</v>
       </c>
     </row>
     <row r="3">
@@ -406,13 +406,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8512801939096759</v>
+        <v>0.8583567480096301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8549646234962884</v>
+        <v>0.861962569846729</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8513142434315408</v>
+        <v>0.8573915374505846</v>
       </c>
     </row>
     <row r="4">
@@ -422,13 +422,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8462652884963642</v>
+        <v>0.8587468239571736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8510750037765373</v>
+        <v>0.8623280506872879</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8463044370277449</v>
+        <v>0.8582392181917525</v>
       </c>
     </row>
     <row r="5">
@@ -438,13 +438,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8509180062964924</v>
+        <v>0.8592343842060686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.854349403853645</v>
+        <v>0.8619029005005245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.850950920835394</v>
+        <v>0.858278953337011</v>
       </c>
     </row>
     <row r="6">
@@ -454,13 +454,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8477140389490987</v>
+        <v>0.8516980616355255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8519165469287997</v>
+        <v>0.8557818254496623</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8477505777098359</v>
+        <v>0.8504298219891291</v>
       </c>
     </row>
     <row r="7">
@@ -470,109 +470,557 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8526314323127072</v>
+        <v>0.8581060225313545</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8557038618374107</v>
+        <v>0.8605595361917168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.85266252312147</v>
+        <v>0.8565672703573673</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>[300, 5]</t>
+          <t>[100, 11]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.849120998523389</v>
+        <v>0.8592761795475787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8531243233989223</v>
+        <v>0.860328027321793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8491566099889563</v>
+        <v>0.8568713531861283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>[300, 6]</t>
+          <t>[100, 12]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8537179951522581</v>
+        <v>0.8600562703185073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8569351479804743</v>
+        <v>0.8614516980023152</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8537497493415225</v>
+        <v>0.8579995603032178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>[300, 7]</t>
+          <t>[100, 13]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8499846766779038</v>
+        <v>0.8528542571176875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.853390784172088</v>
+        <v>0.8576233476730032</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8500174980938169</v>
+        <v>0.85269862534165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>[300, 8]</t>
+          <t>[100, 14]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8527289443624104</v>
+        <v>0.8584542458941277</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8559446429250757</v>
+        <v>0.8616747506727156</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8527607357845903</v>
+        <v>0.8580283158141848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>[300, 9]</t>
+          <t>[300, 5]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8493717437940546</v>
+        <v>0.8590393486578586</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8527569031125367</v>
+        <v>0.8622858332459791</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8494044958079002</v>
+        <v>0.8588214785834518</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>[300, 6]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.859415454339317</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8628018138765596</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8593506863382622</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[300, 7]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8548741990588568</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8581658809513998</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8537552741260998</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[300, 8]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8585518175157059</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8608182200579713</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8572201776432784</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[300, 9]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8607945967951167</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.862558428753717</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8590168869785241</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>[300, 10]</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.8530772016827795</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8560215061427985</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8531076088302824</v>
+      <c r="B17" t="n">
+        <v>0.8612960817095336</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.864350864842391</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.86074445675087</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[300, 11]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8548463371148909</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8577496737063226</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8538228458497231</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[300, 12]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8596801646370487</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.862499002092152</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8590165951740999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[300, 13]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8619090037273416</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8643577706481572</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8606890398274849</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[300, 14]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8613517891036446</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8643778975363021</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8607307310253414</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[500, 5]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8574234626325655</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8604311838360763</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8563032020492389</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>[500, 6]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8607806895936401</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8633875002983217</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8595752943336273</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>[500, 7]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8626891168134388</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8649032894866426</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8610242954117645</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>[500, 8]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8608921179650082</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8639599984683286</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8603683003229092</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>[500, 9]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8558632645968881</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8609014148019387</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8570402615994608</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>[500, 10]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8604184581260169</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8641227940639684</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8604105782404063</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>[500, 11]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8607667232084542</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8637124462370078</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8599927259098232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>[500, 12]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8595965836562751</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8625479586939329</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8591277130780921</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>[500, 13]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8584124689868874</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8613778915868864</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.857375237771199</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>[500, 14]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8621179474472529</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8654900516709048</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8615122233550917</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>[800, 5]</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8613099782385382</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.865484490180382</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8616786371415953</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>[800, 6]</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8607388350684202</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8636336958395536</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8602419848749649</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>[800, 7]</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8582453468045547</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8615926427727598</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8579447644813956</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>[800, 8]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8609199478915576</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8650489440650888</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8612468184626281</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>[800, 9]</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8605716934815927</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.864314534121206</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8606472353919232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>[800, 10]</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8605856278493622</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8643618198301688</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8608693175765169</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>[800, 11]</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8592343880869674</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8619657739895641</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.858293115309172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>[800, 12]</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8617000444838343</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8650381911684856</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8612744842007499</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>[800, 13]</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8609617461437423</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8643223499674414</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8607720604390332</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>[800, 14]</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8601259324551073</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8635713204753317</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8602417256095138</v>
       </c>
     </row>
   </sheetData>

--- a/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
+++ b/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
@@ -7,7 +7,12 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XGB_smote" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DT_smote" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XGB_smote" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="knn_z" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XGB_smote1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XGB_smote2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XGB_smote3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,10 +387,626 @@
           <t>Recall(Avg)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_cross_validation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>[gini, 4]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7546736303382622</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7708577783124578</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7547689674469144</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.003487586574594642</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 5]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7580030041026676</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7781724875893653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.758106659854314</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.002361846796839418</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 6]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7631989602657917</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7866886771747691</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7632650767075057</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002777989557261794</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 7]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.766277515404264</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7812791022662042</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7663402193019559</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.004022207982382051</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 8]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7778814004702659</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7793417982324207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7778433716777535</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.004257134332480543</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 9]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7877441075990539</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7880064539204797</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.78780573178422</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.004785783206570347</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 10]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8002813595472166</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8006205000982242</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8001638530217423</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.005441986785189181</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 11]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8080683125386103</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8092818416711358</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8081990567430395</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.005224623551303052</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 12]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8181676856094509</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8207809107996379</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.818280881826275</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.006544049128096123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 13]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8224164870364481</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8255401343151322</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8227285114408998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.004739900772734187</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 14]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8263309218464073</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8303462624236687</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8257136636021469</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.004134653624025638</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 15]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8240045159733599</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8268679942208677</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8243128562990141</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.004607133710814666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 16]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.822945839718342</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8247338223355782</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8233761569428457</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.004257047143690873</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[gini, 17]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8187946419370977</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8202362143114627</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8194000001880333</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.003786292338616227</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[gini, None]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.795433550092758</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7958773526807319</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7950104760384092</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.003268691299848667</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 4]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7546457654832166</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7707848721189892</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7547271109656715</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.00349876966543216</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 5]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7579612077903917</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7780948789611463</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.758050864148092</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002394588640198411</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 6]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7631293029796397</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7866095008284262</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7632232163391393</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.002817842054791555</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 7]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7666118141008391</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7821203844228826</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.76668972442804</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.003784536472979026</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 8]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7778396119203285</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7792767196211938</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.777788072819806</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.004187408814178485</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 9]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7889141734132064</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7890997466405066</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7889350768509764</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.004998247882035339</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 10]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8009081994397842</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8014231611575273</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8010020967139383</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.004061271937887441</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 11]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8093080511635919</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8110446325716817</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8094988202157383</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.006064202356323593</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 12]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8188084433751565</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8220826581283701</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8188973627294575</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.005960676710450212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 13]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8241994865135382</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8286684388662169</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8245440995414688</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.006858340746594005</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 14]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8279328492506103</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8333516741708731</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8277094875178225</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.004873389249747891</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 15]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8256483503031639</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8296329711243118</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.825754235328462</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.005210563309155014</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 16]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8242134257331072</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.827541646297272</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8243972016073944</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.005081545600802075</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, 17]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8216224133801605</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8239263757111963</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8219424657512198</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.005630851265404785</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>[entropy, None]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7951549733439351</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7946616148171826</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7948440277427058</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.003649937303198069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_cross_validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
           <t>[100, 5]</t>
         </is>
       </c>
@@ -398,6 +1019,9 @@
       <c r="D2" t="n">
         <v>0.8474652758362695</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.002438331570313194</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -414,6 +1038,9 @@
       <c r="D3" t="n">
         <v>0.8573915374505846</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.001796742129529028</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -430,6 +1057,9 @@
       <c r="D4" t="n">
         <v>0.8582392181917525</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.001565549509658343</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -446,6 +1076,9 @@
       <c r="D5" t="n">
         <v>0.858278953337011</v>
       </c>
+      <c r="E5" t="n">
+        <v>0.000504179254407794</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -462,6 +1095,9 @@
       <c r="D6" t="n">
         <v>0.8504298219891291</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.001752443295145367</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -478,6 +1114,9 @@
       <c r="D7" t="n">
         <v>0.8565672703573673</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.001328554052797561</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -494,6 +1133,9 @@
       <c r="D8" t="n">
         <v>0.8568713531861283</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.001518963078774511</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -510,6 +1152,9 @@
       <c r="D9" t="n">
         <v>0.8579995603032178</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.002259381779219471</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -526,6 +1171,9 @@
       <c r="D10" t="n">
         <v>0.85269862534165</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.002949649444434587</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -542,6 +1190,9 @@
       <c r="D11" t="n">
         <v>0.8580283158141848</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.002001504753192452</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -558,6 +1209,9 @@
       <c r="D12" t="n">
         <v>0.8588214785834518</v>
       </c>
+      <c r="E12" t="n">
+        <v>0.001534905203662347</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -574,6 +1228,9 @@
       <c r="D13" t="n">
         <v>0.8593506863382622</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.001390924827142085</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -590,6 +1247,9 @@
       <c r="D14" t="n">
         <v>0.8537552741260998</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.001842376676796079</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -606,6 +1266,9 @@
       <c r="D15" t="n">
         <v>0.8572201776432784</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.001463573322820433</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -622,6 +1285,9 @@
       <c r="D16" t="n">
         <v>0.8590168869785241</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.001469471655304094</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -638,6 +1304,9 @@
       <c r="D17" t="n">
         <v>0.86074445675087</v>
       </c>
+      <c r="E17" t="n">
+        <v>0.00182460113103952</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -654,6 +1323,9 @@
       <c r="D18" t="n">
         <v>0.8538228458497231</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.001522660234788761</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -670,6 +1342,9 @@
       <c r="D19" t="n">
         <v>0.8590165951740999</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.001376222958579328</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -686,6 +1361,9 @@
       <c r="D20" t="n">
         <v>0.8606890398274849</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.001614436930696717</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -702,6 +1380,9 @@
       <c r="D21" t="n">
         <v>0.8607307310253414</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.001155071443024425</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -718,6 +1399,9 @@
       <c r="D22" t="n">
         <v>0.8563032020492389</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.001360328668919615</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -734,6 +1418,9 @@
       <c r="D23" t="n">
         <v>0.8595752943336273</v>
       </c>
+      <c r="E23" t="n">
+        <v>0.002539834923471318</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -750,6 +1437,9 @@
       <c r="D24" t="n">
         <v>0.8610242954117645</v>
       </c>
+      <c r="E24" t="n">
+        <v>0.001522652200179379</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -766,6 +1456,9 @@
       <c r="D25" t="n">
         <v>0.8603683003229092</v>
       </c>
+      <c r="E25" t="n">
+        <v>0.001966223072680142</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -782,6 +1475,9 @@
       <c r="D26" t="n">
         <v>0.8570402615994608</v>
       </c>
+      <c r="E26" t="n">
+        <v>0.001486027059183973</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -798,6 +1494,9 @@
       <c r="D27" t="n">
         <v>0.8604105782404063</v>
       </c>
+      <c r="E27" t="n">
+        <v>0.001875769859146483</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -814,6 +1513,9 @@
       <c r="D28" t="n">
         <v>0.8599927259098232</v>
       </c>
+      <c r="E28" t="n">
+        <v>0.001436264781792946</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -830,6 +1532,9 @@
       <c r="D29" t="n">
         <v>0.8591277130780921</v>
       </c>
+      <c r="E29" t="n">
+        <v>0.001851589665056362</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -846,6 +1551,9 @@
       <c r="D30" t="n">
         <v>0.857375237771199</v>
       </c>
+      <c r="E30" t="n">
+        <v>0.002051799002898622</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -862,6 +1570,9 @@
       <c r="D31" t="n">
         <v>0.8615122233550917</v>
       </c>
+      <c r="E31" t="n">
+        <v>0.001139923842875513</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -878,6 +1589,9 @@
       <c r="D32" t="n">
         <v>0.8616786371415953</v>
       </c>
+      <c r="E32" t="n">
+        <v>0.001937353689567227</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -894,6 +1608,9 @@
       <c r="D33" t="n">
         <v>0.8602419848749649</v>
       </c>
+      <c r="E33" t="n">
+        <v>0.002104613124238514</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -910,6 +1627,9 @@
       <c r="D34" t="n">
         <v>0.8579447644813956</v>
       </c>
+      <c r="E34" t="n">
+        <v>0.001890876171989518</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -926,6 +1646,9 @@
       <c r="D35" t="n">
         <v>0.8612468184626281</v>
       </c>
+      <c r="E35" t="n">
+        <v>0.00160933369358528</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -942,6 +1665,9 @@
       <c r="D36" t="n">
         <v>0.8606472353919232</v>
       </c>
+      <c r="E36" t="n">
+        <v>0.001278431698207553</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -958,6 +1684,9 @@
       <c r="D37" t="n">
         <v>0.8608693175765169</v>
       </c>
+      <c r="E37" t="n">
+        <v>0.001721320447262073</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -974,6 +1703,9 @@
       <c r="D38" t="n">
         <v>0.858293115309172</v>
       </c>
+      <c r="E38" t="n">
+        <v>0.001498048538399902</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -990,6 +1722,9 @@
       <c r="D39" t="n">
         <v>0.8612744842007499</v>
       </c>
+      <c r="E39" t="n">
+        <v>0.0008607550171314646</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1006,6 +1741,9 @@
       <c r="D40" t="n">
         <v>0.8607720604390332</v>
       </c>
+      <c r="E40" t="n">
+        <v>0.001051336030330628</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1021,6 +1759,2852 @@
       </c>
       <c r="D41" t="n">
         <v>0.8602417256095138</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.00125916165511472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_cross_validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 2]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7534895146793209</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7696564548213501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.753407578468458</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.003679428568427485</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 3]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8057281292690192</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8060787753149755</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8057390349856408</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.004473575850996007</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 4]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7883152030831259</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7911614737204254</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7882822954299534</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.004565233594609304</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 5]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8137798449256805</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.815014422672563</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8138005742860195</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002570439290980144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 6]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8028305841190531</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8030835161696224</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8028211226272155</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002647756748372536</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 7]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8177220815089106</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8199128528698054</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8177494909316175</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002408741309906696</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[minkowski, 8]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8103250977649388</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8103923871897594</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8103286576002414</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002036991885161612</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 2]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7534895146793209</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7696564548213501</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.753407578468458</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.003679428568427485</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 3]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8057281292690192</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8060787753149755</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8057390349856408</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.004473575850996007</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 4]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7883152030831259</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7911614737204254</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7882822954299534</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.004565233594609304</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 5]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8137798449256805</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.815014422672563</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8138005742860195</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.002570439290980144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 6]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8028305841190531</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8030835161696224</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8028211226272155</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002647756748372536</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 7]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8177220815089106</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8199128528698054</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8177494909316175</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002408741309906696</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[euclidean, 8]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8103250977649388</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8103923871897594</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8103286576002414</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.002036991885161612</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 2]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7577521951504617</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7747865915842599</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7576689529297228</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.003279782353528912</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 3]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8098375472182914</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8100824931085793</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8098465540517733</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.003654024954528568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 4]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7899729096757729</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7933642360611707</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7899369921621793</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.004887686663056351</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 5]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8165658569200062</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8176363319801008</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8165850662744678</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.00374400147568927</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 6]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8048365470621143</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8051641379320325</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8048257999620434</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00348372881421865</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 7]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.820689235433116</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8227035975000507</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8207153576756898</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.002921102776925654</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[manhattan, 8]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8125539387956812</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8125925681376186</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8125565003947305</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.003700425940015931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_cross_validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[100, 5]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8480762049053731</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8474652758362695</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8534935509033312</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002438331570313194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[100, 6]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8516980616355255</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8504298219891291</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8557818254496623</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001752443295145367</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[100, 7]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8528542571176875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.85269862534165</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8576233476730032</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002949649444434587</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[100, 8]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8548741990588568</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8537552741260998</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8581658809513998</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001842376676796079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[100, 9]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8548463371148909</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8538228458497231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8577496737063226</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001522660234788761</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[100, 10]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8574234626325655</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8563032020492389</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8604311838360763</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001360328668919615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[100, 11]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8558632645968881</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8570402615994608</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8609014148019387</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001486027059183973</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[100, 12]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8584124689868874</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.857375237771199</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8613778915868864</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002051799002898622</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[100, 13]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8582453468045547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8579447644813956</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8615926427727598</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001890876171989518</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[100, 14]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8592343880869674</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.858293115309172</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8619657739895641</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001498048538399902</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[300, 5]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8583567480096301</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8573915374505846</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.861962569846729</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001796742129529028</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[300, 6]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8581060225313545</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8565672703573673</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8605595361917168</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001328554052797561</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[300, 7]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8584542458941277</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8580283158141848</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8616747506727156</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002001504753192452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[300, 8]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8585518175157059</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8572201776432784</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8608182200579713</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001463573322820433</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[300, 9]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8596801646370487</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8590165951740999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.862499002092152</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001376222958579328</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[300, 10]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8607806895936401</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8595752943336273</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8633875002983217</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002539834923471318</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[300, 11]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8604184581260169</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8604105782404063</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8641227940639684</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001875769859146483</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[300, 12]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8621179474472529</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8615122233550917</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8654900516709048</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.001139923842875513</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[300, 13]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8609199478915576</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8612468184626281</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8650489440650888</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00160933369358528</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[300, 14]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8617000444838343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8612744842007499</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8650381911684856</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0008607550171314646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[500, 5]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8587468239571736</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8582392181917525</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8623280506872879</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001565549509658343</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>[500, 6]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8592761795475787</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8568713531861283</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.860328027321793</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001518963078774511</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>[500, 7]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8590393486578586</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8588214785834518</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8622858332459791</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001534905203662347</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>[500, 8]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8607945967951167</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8590168869785241</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.862558428753717</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001469471655304094</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>[500, 9]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8619090037273416</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8606890398274849</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8643577706481572</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001614436930696717</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>[500, 10]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8626891168134388</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8610242954117645</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8649032894866426</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.001522652200179379</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>[500, 11]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8607667232084542</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8599927259098232</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8637124462370078</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001436264781792946</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>[500, 12]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8613099782385382</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8616786371415953</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.865484490180382</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001937353689567227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>[500, 13]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8605716934815927</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8606472353919232</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.864314534121206</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001278431698207553</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>[500, 14]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8609617461437423</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8607720604390332</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8643223499674414</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001051336030330628</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>[800, 5]</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8592343842060686</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.858278953337011</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8619029005005245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.000504179254407794</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>[800, 6]</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8600562703185073</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8579995603032178</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8614516980023152</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.002259381779219471</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>[800, 7]</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.859415454339317</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8593506863382622</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8628018138765596</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001390924827142085</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>[800, 8]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8612960817095336</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.86074445675087</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.864350864842391</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00182460113103952</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>[800, 9]</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8613517891036446</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8607307310253414</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8643778975363021</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001155071443024425</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>[800, 10]</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8608921179650082</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8603683003229092</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8639599984683286</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001966223072680142</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>[800, 11]</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8595965836562751</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8591277130780921</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8625479586939329</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001851589665056362</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>[800, 12]</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8607388350684202</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8602419848749649</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8636336958395536</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002104613124238514</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>[800, 13]</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8605856278493622</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8608693175765169</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8643618198301688</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001721320447262073</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>[800, 14]</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8601259324551073</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8602417256095138</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8635713204753317</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.00125916165511472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_cross_validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[5, 100]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8480762049053731</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8474652758362695</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8534935509033312</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002438331570313194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[5, 300]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8516980616355255</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8504298219891291</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8557818254496623</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001752443295145367</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[5, 500]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8528542571176875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.85269862534165</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8576233476730032</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002949649444434587</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[5, 800]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8548741990588568</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8537552741260998</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8581658809513998</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.001842376676796079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[6, 100]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8548463371148909</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8538228458497231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8577496737063226</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001522660234788761</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[6, 300]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8574234626325655</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8563032020492389</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8604311838360763</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001360328668919615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[6, 500]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8558632645968881</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8570402615994608</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8609014148019387</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001486027059183973</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[6, 800]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8584124689868874</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.857375237771199</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8613778915868864</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002051799002898622</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[7, 100]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8582453468045547</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8579447644813956</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8615926427727598</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001890876171989518</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[7, 300]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8592343880869674</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.858293115309172</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8619657739895641</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001498048538399902</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[7, 500]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8583567480096301</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8573915374505846</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.861962569846729</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001796742129529028</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[7, 800]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8581060225313545</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8565672703573673</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8605595361917168</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001328554052797561</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[8, 100]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8584542458941277</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8580283158141848</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8616747506727156</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002001504753192452</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[8, 300]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8585518175157059</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8572201776432784</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8608182200579713</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001463573322820433</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[8, 500]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8596801646370487</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8590165951740999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.862499002092152</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001376222958579328</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[8, 800]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8607806895936401</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8595752943336273</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8633875002983217</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002539834923471318</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[9, 100]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8604184581260169</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8604105782404063</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8641227940639684</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001875769859146483</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[9, 300]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8621179474472529</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8615122233550917</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8654900516709048</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.001139923842875513</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[9, 500]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8609199478915576</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8612468184626281</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8650489440650888</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00160933369358528</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[9, 800]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8617000444838343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8612744842007499</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8650381911684856</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0008607550171314646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[10, 100]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8587468239571736</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8582392181917525</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8623280506872879</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001565549509658343</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>[10, 300]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8592761795475787</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8568713531861283</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.860328027321793</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001518963078774511</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>[10, 500]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8590393486578586</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8588214785834518</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8622858332459791</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001534905203662347</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>[10, 800]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8607945967951167</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8590168869785241</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.862558428753717</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001469471655304094</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>[11, 100]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8619090037273416</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8606890398274849</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8643577706481572</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001614436930696717</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>[11, 300]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8626891168134388</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8610242954117645</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8649032894866426</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.001522652200179379</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>[11, 500]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8607667232084542</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8599927259098232</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8637124462370078</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001436264781792946</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>[11, 800]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8613099782385382</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8616786371415953</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.865484490180382</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001937353689567227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>[12, 100]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8605716934815927</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8606472353919232</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.864314534121206</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.001278431698207553</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>[12, 300]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8609617461437423</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8607720604390332</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8643223499674414</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001051336030330628</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>[12, 500]</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8592343842060686</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.858278953337011</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8619029005005245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.000504179254407794</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>[12, 800]</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8600562703185073</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8579995603032178</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8614516980023152</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.002259381779219471</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>[13, 100]</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.859415454339317</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8593506863382622</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8628018138765596</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001390924827142085</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>[13, 300]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8612960817095336</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.86074445675087</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.864350864842391</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00182460113103952</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>[13, 500]</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8613517891036446</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8607307310253414</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8643778975363021</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001155071443024425</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>[13, 800]</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8608921179650082</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8603683003229092</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8639599984683286</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001966223072680142</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>[14, 100]</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8595965836562751</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8591277130780921</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8625479586939329</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001851589665056362</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>[14, 300]</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8607388350684202</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8602419848749649</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8636336958395536</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002104613124238514</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>[14, 500]</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8605856278493622</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8608693175765169</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8643618198301688</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001721320447262073</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>[14, 800]</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8601259324551073</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8602417256095138</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8635713204753317</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.00125916165511472</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_cross_validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[5, 100]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8480762049053731</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8534935509033312</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8474652758362695</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002438331570313194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[5, 300]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8583567480096301</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.861962569846729</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8573915374505846</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001796742129529028</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[5, 500]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8587468239571736</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8623280506872879</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8582392181917525</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.001565549509658343</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[5, 800]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8592343842060686</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8619029005005245</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.858278953337011</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.000504179254407794</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[6, 100]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8516980616355255</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8557818254496623</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8504298219891291</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.001752443295145367</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[6, 300]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8581060225313545</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8605595361917168</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8565672703573673</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001328554052797561</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[6, 500]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8592761795475787</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.860328027321793</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8568713531861283</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001518963078774511</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[6, 800]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8600562703185073</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8614516980023152</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8579995603032178</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002259381779219471</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[7, 100]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8528542571176875</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8576233476730032</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.85269862534165</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002949649444434587</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[7, 300]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8584542458941277</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8616747506727156</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8580283158141848</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002001504753192452</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[7, 500]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8590393486578586</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8622858332459791</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8588214785834518</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001534905203662347</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[7, 800]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.859415454339317</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8628018138765596</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8593506863382622</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001390924827142085</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[8, 100]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8548741990588568</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8581658809513998</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8537552741260998</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001842376676796079</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[8, 300]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8585518175157059</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8608182200579713</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8572201776432784</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.001463573322820433</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[8, 500]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8607945967951167</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.862558428753717</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8590168869785241</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001469471655304094</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[8, 800]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8612960817095336</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.864350864842391</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.86074445675087</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.00182460113103952</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>[9, 100]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8548463371148909</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8577496737063226</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8538228458497231</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001522660234788761</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>[9, 300]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8596801646370487</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.862499002092152</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8590165951740999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.001376222958579328</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>[9, 500]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8619090037273416</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8643577706481572</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8606890398274849</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001614436930696717</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>[9, 800]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8613517891036446</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8643778975363021</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8607307310253414</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001155071443024425</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>[10, 100]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8574234626325655</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8604311838360763</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8563032020492389</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001360328668919615</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>[10, 300]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8607806895936401</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8633875002983217</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8595752943336273</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002539834923471318</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>[10, 500]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8626891168134388</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8649032894866426</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8610242954117645</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001522652200179379</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>[10, 800]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8608921179650082</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8639599984683286</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8603683003229092</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001966223072680142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>[11, 100]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8558632645968881</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8609014148019387</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8570402615994608</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001486027059183973</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>[11, 300]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8604184581260169</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8641227940639684</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8604105782404063</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.001875769859146483</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>[11, 500]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8607667232084542</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8637124462370078</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8599927259098232</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001436264781792946</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>[11, 800]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8595965836562751</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8625479586939329</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8591277130780921</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.001851589665056362</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>[12, 100]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8584124689868874</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8613778915868864</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.857375237771199</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.002051799002898622</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>[12, 300]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8621179474472529</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8654900516709048</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8615122233550917</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.001139923842875513</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>[12, 500]</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8613099782385382</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.865484490180382</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8616786371415953</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.001937353689567227</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>[12, 800]</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8607388350684202</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8636336958395536</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8602419848749649</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.002104613124238514</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>[13, 100]</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8582453468045547</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8615926427727598</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8579447644813956</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001890876171989518</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>[13, 300]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8609199478915576</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8650489440650888</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8612468184626281</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00160933369358528</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>[13, 500]</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8605716934815927</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.864314534121206</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8606472353919232</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.001278431698207553</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>[13, 800]</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8605856278493622</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8643618198301688</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8608693175765169</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001721320447262073</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>[14, 100]</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8592343880869674</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8619657739895641</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.858293115309172</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001498048538399902</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>[14, 300]</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8617000444838343</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8650381911684856</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8612744842007499</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0008607550171314646</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>[14, 500]</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8609617461437423</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8643223499674414</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8607720604390332</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001051336030330628</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>[14, 800]</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.8601259324551073</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8635713204753317</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8602417256095138</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.00125916165511472</v>
       </c>
     </row>
   </sheetData>

--- a/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
+++ b/feature_selection/Univariante ROC_AUC/Qualitative deleted/Continuous deleted/Balancing_Oversamlping_SMOTE/tables_smote.xlsx
@@ -13,6 +13,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XGB_smote1" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XGB_smote2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="XGB_smote3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_Z" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_Z1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4610,4 +4612,641 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 1]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8202016936184913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8398572549632499</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.820282038885024</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8313459531047886</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.851020859901092</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8314250498125393</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8331429606852417</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8523256289622969</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8332208987570006</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7531690989279278</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7804823936473813</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7532732474442394</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.834118037522918</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8445046745608472</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8341759138897922</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8337558885243981</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8520001665666375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8338319426194308</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8330315080582551</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8517541222750274</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8331085777033153</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.833741960948202</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8522439273924404</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8338185079466743</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[10, 1]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8262892474949499</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8302048856613891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8263254969347413</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.1]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8352046261712905</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8490241558064276</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8352709256667555</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.01]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8337698180410438</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8522249218111486</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8338462777238455</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.001]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8329061356168698</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8515586436603563</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8329830800585452</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[100, 1]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8121639162104985</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8133813418809875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8121842487838122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.1]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8362493826096122</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8471648237403262</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8363086445043949</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.01]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8339230495157206</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.852221501104734</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8339991861698973</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.001]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8336026541390471</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8520668801586948</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8336791583789573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Precision(Avg)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recall(Avg)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_cross_validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 1]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8202016936184913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8398572549632499</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.820282038885024</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002454186493353154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8313459531047886</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.851020859901092</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8314250498125393</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.002019755326894574</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8331429606852417</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8523256289622969</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8332208987570006</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002249333580720828</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>[0.1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7531690989279278</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7804823936473813</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7532732474442394</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.003187951894907381</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>[1, 1]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.834118037522918</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8445046745608472</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8341759138897922</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.003089174059208984</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.1]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8337558885243981</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8520001665666375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8338319426194308</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002057226086398187</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.01]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8330315080582551</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8517541222750274</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8331085777033153</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00202820335174945</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>[1, 0.001]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.833741960948202</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8522439273924404</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8338185079466743</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002345544505908686</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>[10, 1]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8262892474949499</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8302048856613891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8263254969347413</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002092907043063291</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.1]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8352046261712905</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8490241558064276</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8352709256667555</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002501541426657304</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.01]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8337698180410438</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8522249218111486</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8338462777238455</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.002076162180536619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>[10, 0.001]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8329061356168698</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8515586436603563</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8329830800585452</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002295507980122763</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>[100, 1]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8121639162104985</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8133813418809875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8121842487838122</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0009202182752484279</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.1]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8362493826096122</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8471648237403262</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8363086445043949</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.003235119973930643</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.01]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8339230495157206</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.852221501104734</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8339991861698973</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.002037621877036707</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>[100, 0.001]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8336026541390471</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8520668801586948</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8336791583789573</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.00213853529598701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>